--- a/audit-SEO.xlsx
+++ b/audit-SEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Catégorie</t>
   </si>
@@ -136,6 +136,16 @@
   </si>
   <si>
     <t>Les contrastes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les contrastes sont faibles et ne correspondent pas aux normes WCAG.
+</t>
+  </si>
+  <si>
+    <t>les couleurs choisies en arrière plan et en premier plan ne passe pas le validateur de contraste</t>
+  </si>
+  <si>
+    <t>Le contraste des couleurs doit respecter le niveau AA de WCAG</t>
   </si>
 </sst>
 </file>
@@ -257,7 +267,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,6 +319,24 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -530,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -702,11 +730,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:26" s="23" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="B8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="17"/>

--- a/audit-SEO.xlsx
+++ b/audit-SEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Catégorie</t>
   </si>
@@ -135,9 +135,6 @@
     <t xml:space="preserve">Créer un niveau &lt;h2&gt; avant le niveau &lt;h3&gt;. </t>
   </si>
   <si>
-    <t>Les contrastes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Les contrastes sont faibles et ne correspondent pas aux normes WCAG.
 </t>
   </si>
@@ -146,6 +143,33 @@
   </si>
   <si>
     <t>Le contraste des couleurs doit respecter le niveau AA de WCAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte dans les images:
+</t>
+  </si>
+  <si>
+    <t>Certains  paragraphes du site sont inclus dans des images. Cette pratique est déconseillée car elle ne permet pas aux utilisateurs d’augmenter la taille de la fonte ou de changer le style de la police en fonction de leur besoins</t>
+  </si>
+  <si>
+    <t>Ne pas utiliser un un txte dans une image mais juste du texte.</t>
+  </si>
+  <si>
+    <t>Utiliser la balise &lt;p&gt; pour le texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apparence des boutons:   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sur la page d’accueil le visiteur est invité à plusieurs reprises de contacter le site. Seulement les boutons dédiés à cette fonction n’ont pas la même apparence. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donner la même apparences aux boutons dont la fonction est similaire </t>
+  </si>
+  <si>
+    <t>Même apparence pour les  boutons</t>
   </si>
 </sst>
 </file>
@@ -267,7 +291,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,6 +361,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -558,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -709,7 +736,7 @@
       <c r="E6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -732,24 +759,52 @@
     </row>
     <row r="8" spans="1:26" s="23" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="C8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>38</v>
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="17"/>
+    <row r="9" spans="1:26" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="17"/>
+    <row r="10" spans="1:26" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="17"/>

--- a/audit-SEO.xlsx
+++ b/audit-SEO.xlsx
@@ -172,7 +172,7 @@
     <t>https://www.powertrafic.fr/balise-meta-description-title-google/ et cours oc</t>
   </si>
   <si>
-    <t>Cours OC et https://www.solocal.com/ressources/articles/importance-seo-local-strategie-web-to-store</t>
+    <t>https://www.solocal.com/ressources/articles/importance-seo-local-strategie-web-to-store</t>
   </si>
 </sst>
 </file>
@@ -267,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -283,18 +283,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -313,20 +304,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -335,52 +319,55 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -602,254 +589,254 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="63" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="57.6" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="88.36328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55.90625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="67.1796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="32.54296875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="85.7265625" style="5" customWidth="1"/>
-    <col min="7" max="26" width="10.54296875" style="5" customWidth="1"/>
-    <col min="27" max="16384" width="11.26953125" style="5"/>
+    <col min="1" max="1" width="28.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="88.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="67.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="47.81640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="102.6328125" style="2" customWidth="1"/>
+    <col min="7" max="26" width="10.54296875" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="11.26953125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
     </row>
     <row r="2" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="76.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:26" ht="109.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:26" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:26" ht="85.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:26" s="19" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="76.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:26" ht="103.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="82.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:26" ht="112.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="16"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="16"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="16"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="16"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="16"/>
+      <c r="E15" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -857,8 +844,9 @@
     <hyperlink ref="F2" r:id="rId2"/>
     <hyperlink ref="F3" r:id="rId3"/>
     <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId5"/>
+  <pageSetup orientation="landscape" r:id="rId6"/>
 </worksheet>
 </file>
--- a/audit-SEO.xlsx
+++ b/audit-SEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>Catégorie</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Même apparence pour les  boutons</t>
   </si>
   <si>
-    <t>Cours OC</t>
-  </si>
-  <si>
     <t>https://www.seo.fr/definition/black-hat-seo  et cours oc</t>
   </si>
   <si>
@@ -173,6 +170,21 @@
   </si>
   <si>
     <t>https://www.solocal.com/ressources/articles/importance-seo-local-strategie-web-to-store</t>
+  </si>
+  <si>
+    <t>https://semji.com/fr/blog/quel-est-linteret-des-balises-h1-h2-h3-pour-votre-seo/</t>
+  </si>
+  <si>
+    <t>https://www.yoma-web.com/conseils-referencement/webdesign/accessibilite-couleur-contraste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réglage des contrastes </t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/docs/advanced/guidelines/google-images?hl=fr</t>
+  </si>
+  <si>
+    <t>https://fr.oncrawl.com/seo-technique/accessibilite-web-seo/</t>
   </si>
 </sst>
 </file>
@@ -353,9 +365,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -367,6 +376,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="63" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="57.6" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -599,51 +611,51 @@
     <col min="2" max="2" width="88.36328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="55.90625" style="2" customWidth="1"/>
     <col min="4" max="4" width="67.1796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="47.81640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="47.81640625" style="19" customWidth="1"/>
     <col min="6" max="6" width="102.6328125" style="2" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" style="2" customWidth="1"/>
     <col min="27" max="16384" width="11.26953125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="3" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -662,7 +674,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.35">
@@ -682,7 +694,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="109.8" customHeight="1" x14ac:dyDescent="0.35">
@@ -722,7 +734,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
@@ -742,7 +754,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="85.8" customHeight="1" x14ac:dyDescent="0.35">
@@ -761,11 +773,11 @@
       <c r="E7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="19" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
@@ -778,9 +790,11 @@
       <c r="D8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="3" t="s">
-        <v>43</v>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="103.2" customHeight="1" x14ac:dyDescent="0.35">
@@ -799,8 +813,8 @@
       <c r="E9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>43</v>
+      <c r="F9" s="23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="112.2" customHeight="1" x14ac:dyDescent="0.35">
@@ -819,8 +833,8 @@
       <c r="E10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>43</v>
+      <c r="F10" s="23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
@@ -845,8 +859,12 @@
     <hyperlink ref="F3" r:id="rId3"/>
     <hyperlink ref="F5" r:id="rId4"/>
     <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId6"/>
+  <pageSetup orientation="landscape" r:id="rId10"/>
 </worksheet>
 </file>